--- a/cap-analysis/src/main/resources/excel_template/zyxj_template.xlsx
+++ b/cap-analysis/src/main/resources/excel_template/zyxj_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hongchengjingyun\caphr\cap-analysis\src\main\resources\excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hongchengjingyun\caphr\cap-analysis\src\main\resources\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA48DF-99EF-48D1-821F-9FC394F3A5B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BBC66B-B64E-404B-97E6-85073D14AFA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,18 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
+          <t xml:space="preserve">Administrator:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:if(condition="item.flag9=='1'" lastCell="Q4" areas=["Q4:Q4"])</t>
         </r>
         <r>
           <rPr>
@@ -459,27 +470,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="item.flag</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>9</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>=='1'" lastCell="Q4" areas=["Q4:Q4"])
-jx:image(lastCell="Q4" src="item.image</t>
+jx:image(lastCell="Q4" areas=["Q4:Q4"] src="item.image</t>
         </r>
         <r>
           <rPr>
@@ -1119,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
